--- a/資料集/Member.xlsx
+++ b/資料集/Member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Database Project1222\資料集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D76560-41F9-42EF-BF62-1BA1D6E26D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F41FB5-5E2B-4078-B43B-87A7876ED72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4514,7 +4514,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4533,7 +4533,7 @@
         <v>581</v>
       </c>
       <c r="C1" t="str">
-        <f>_xlfn.CONCAT(A1,"@gmail.com")</f>
+        <f t="shared" ref="C1:C32" si="0">_xlfn.CONCAT(A1,"@gmail.com")</f>
         <v>999@gmail.com</v>
       </c>
       <c r="D1" t="s">
@@ -4558,7 +4558,7 @@
         <v>582</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT(A2,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1000@gmail.com</v>
       </c>
       <c r="D2" t="s">
@@ -4576,14 +4576,14 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <f t="shared" ref="A3:A66" si="1">A2+1</f>
         <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>581</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.CONCAT(A3,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1001@gmail.com</v>
       </c>
       <c r="D3" t="s">
@@ -4601,14 +4601,14 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>582</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT(A4,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1002@gmail.com</v>
       </c>
       <c r="D4" t="s">
@@ -4626,14 +4626,14 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>581</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT(A5,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1003@gmail.com</v>
       </c>
       <c r="D5" t="s">
@@ -4651,14 +4651,14 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1004</v>
       </c>
       <c r="B6" t="s">
         <v>581</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT(A6,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1004@gmail.com</v>
       </c>
       <c r="D6" t="s">
@@ -4676,14 +4676,14 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1005</v>
       </c>
       <c r="B7" t="s">
         <v>581</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT(A7,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1005@gmail.com</v>
       </c>
       <c r="D7" t="s">
@@ -4701,14 +4701,14 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1006</v>
       </c>
       <c r="B8" t="s">
         <v>582</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT(A8,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1006@gmail.com</v>
       </c>
       <c r="D8" t="s">
@@ -4726,14 +4726,14 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1007</v>
       </c>
       <c r="B9" t="s">
         <v>581</v>
       </c>
       <c r="C9" t="str">
-        <f>_xlfn.CONCAT(A9,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1007@gmail.com</v>
       </c>
       <c r="D9" t="s">
@@ -4751,14 +4751,14 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="B10" t="s">
         <v>581</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT(A10,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1008@gmail.com</v>
       </c>
       <c r="D10" t="s">
@@ -4776,14 +4776,14 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1009</v>
       </c>
       <c r="B11" t="s">
         <v>581</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.CONCAT(A11,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1009@gmail.com</v>
       </c>
       <c r="D11" t="s">
@@ -4801,14 +4801,14 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1010</v>
       </c>
       <c r="B12" t="s">
         <v>581</v>
       </c>
       <c r="C12" t="str">
-        <f>_xlfn.CONCAT(A12,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1010@gmail.com</v>
       </c>
       <c r="D12" t="s">
@@ -4826,14 +4826,14 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1011</v>
       </c>
       <c r="B13" t="s">
         <v>582</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.CONCAT(A13,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1011@gmail.com</v>
       </c>
       <c r="D13">
@@ -4851,14 +4851,14 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="B14" t="s">
         <v>581</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.CONCAT(A14,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1012@gmail.com</v>
       </c>
       <c r="D14" t="s">
@@ -4876,14 +4876,14 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1013</v>
       </c>
       <c r="B15" t="s">
         <v>581</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.CONCAT(A15,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1013@gmail.com</v>
       </c>
       <c r="D15" t="s">
@@ -4901,14 +4901,14 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1014</v>
       </c>
       <c r="B16" t="s">
         <v>581</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.CONCAT(A16,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1014@gmail.com</v>
       </c>
       <c r="D16" t="s">
@@ -4926,14 +4926,14 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="B17" t="s">
         <v>582</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.CONCAT(A17,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1015@gmail.com</v>
       </c>
       <c r="D17" t="s">
@@ -4951,14 +4951,14 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1016</v>
       </c>
       <c r="B18" t="s">
         <v>581</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.CONCAT(A18,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1016@gmail.com</v>
       </c>
       <c r="D18" t="s">
@@ -4976,14 +4976,14 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1017</v>
       </c>
       <c r="B19" t="s">
         <v>582</v>
       </c>
       <c r="C19" t="str">
-        <f>_xlfn.CONCAT(A19,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1017@gmail.com</v>
       </c>
       <c r="D19" t="s">
@@ -5001,14 +5001,14 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1018</v>
       </c>
       <c r="B20" t="s">
         <v>581</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.CONCAT(A20,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1018@gmail.com</v>
       </c>
       <c r="D20" t="s">
@@ -5026,14 +5026,14 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1019</v>
       </c>
       <c r="B21" t="s">
         <v>581</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT(A21,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1019@gmail.com</v>
       </c>
       <c r="D21" t="s">
@@ -5051,14 +5051,14 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1020</v>
       </c>
       <c r="B22" t="s">
         <v>581</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT(A22,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1020@gmail.com</v>
       </c>
       <c r="D22" t="s">
@@ -5076,14 +5076,14 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1021</v>
       </c>
       <c r="B23" t="s">
         <v>581</v>
       </c>
       <c r="C23" t="str">
-        <f>_xlfn.CONCAT(A23,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1021@gmail.com</v>
       </c>
       <c r="D23" t="s">
@@ -5101,14 +5101,14 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1022</v>
       </c>
       <c r="B24" t="s">
         <v>582</v>
       </c>
       <c r="C24" t="str">
-        <f>_xlfn.CONCAT(A24,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1022@gmail.com</v>
       </c>
       <c r="D24" t="s">
@@ -5126,14 +5126,14 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1023</v>
       </c>
       <c r="B25" t="s">
         <v>581</v>
       </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT(A25,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1023@gmail.com</v>
       </c>
       <c r="D25" t="s">
@@ -5151,14 +5151,14 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="B26" t="s">
         <v>581</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT(A26,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1024@gmail.com</v>
       </c>
       <c r="D26" t="s">
@@ -5176,14 +5176,14 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1025</v>
       </c>
       <c r="B27" t="s">
         <v>581</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT(A27,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1025@gmail.com</v>
       </c>
       <c r="D27" t="s">
@@ -5201,14 +5201,14 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="B28" t="s">
         <v>582</v>
       </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT(A28,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1026@gmail.com</v>
       </c>
       <c r="D28" t="s">
@@ -5226,14 +5226,14 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1027</v>
       </c>
       <c r="B29" t="s">
         <v>581</v>
       </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT(A29,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1027@gmail.com</v>
       </c>
       <c r="D29" t="s">
@@ -5251,14 +5251,14 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1028</v>
       </c>
       <c r="B30" t="s">
         <v>582</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.CONCAT(A30,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1028@gmail.com</v>
       </c>
       <c r="D30" t="s">
@@ -5276,14 +5276,14 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1029</v>
       </c>
       <c r="B31" t="s">
         <v>581</v>
       </c>
       <c r="C31" t="str">
-        <f>_xlfn.CONCAT(A31,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1029@gmail.com</v>
       </c>
       <c r="D31" t="s">
@@ -5301,14 +5301,14 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1030</v>
       </c>
       <c r="B32" t="s">
         <v>581</v>
       </c>
       <c r="C32" t="str">
-        <f>_xlfn.CONCAT(A32,"@gmail.com")</f>
+        <f t="shared" si="0"/>
         <v>1030@gmail.com</v>
       </c>
       <c r="D32" t="s">
@@ -5326,14 +5326,14 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1031</v>
       </c>
       <c r="B33" t="s">
         <v>581</v>
       </c>
       <c r="C33" t="str">
-        <f>_xlfn.CONCAT(A33,"@gmail.com")</f>
+        <f t="shared" ref="C33:C64" si="2">_xlfn.CONCAT(A33,"@gmail.com")</f>
         <v>1031@gmail.com</v>
       </c>
       <c r="D33" t="s">
@@ -5351,14 +5351,14 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1032</v>
       </c>
       <c r="B34" t="s">
         <v>581</v>
       </c>
       <c r="C34" t="str">
-        <f>_xlfn.CONCAT(A34,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1032@gmail.com</v>
       </c>
       <c r="D34" t="s">
@@ -5376,14 +5376,14 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1033</v>
       </c>
       <c r="B35" t="s">
         <v>582</v>
       </c>
       <c r="C35" t="str">
-        <f>_xlfn.CONCAT(A35,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1033@gmail.com</v>
       </c>
       <c r="D35" t="s">
@@ -5401,14 +5401,14 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1034</v>
       </c>
       <c r="B36" t="s">
         <v>581</v>
       </c>
       <c r="C36" t="str">
-        <f>_xlfn.CONCAT(A36,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1034@gmail.com</v>
       </c>
       <c r="D36" t="s">
@@ -5426,14 +5426,14 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1035</v>
       </c>
       <c r="B37" t="s">
         <v>581</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT(A37,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1035@gmail.com</v>
       </c>
       <c r="D37" t="s">
@@ -5451,14 +5451,14 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1036</v>
       </c>
       <c r="B38" t="s">
         <v>581</v>
       </c>
       <c r="C38" t="str">
-        <f>_xlfn.CONCAT(A38,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1036@gmail.com</v>
       </c>
       <c r="D38" t="s">
@@ -5476,14 +5476,14 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1037</v>
       </c>
       <c r="B39" t="s">
         <v>582</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT(A39,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1037@gmail.com</v>
       </c>
       <c r="D39" t="s">
@@ -5501,14 +5501,14 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1038</v>
       </c>
       <c r="B40" t="s">
         <v>581</v>
       </c>
       <c r="C40" t="str">
-        <f>_xlfn.CONCAT(A40,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1038@gmail.com</v>
       </c>
       <c r="D40" t="s">
@@ -5526,14 +5526,14 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1039</v>
       </c>
       <c r="B41" t="s">
         <v>582</v>
       </c>
       <c r="C41" t="str">
-        <f>_xlfn.CONCAT(A41,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1039@gmail.com</v>
       </c>
       <c r="D41" t="s">
@@ -5551,14 +5551,14 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1040</v>
       </c>
       <c r="B42" t="s">
         <v>581</v>
       </c>
       <c r="C42" t="str">
-        <f>_xlfn.CONCAT(A42,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1040@gmail.com</v>
       </c>
       <c r="D42" t="s">
@@ -5576,14 +5576,14 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1041</v>
       </c>
       <c r="B43" t="s">
         <v>581</v>
       </c>
       <c r="C43" t="str">
-        <f>_xlfn.CONCAT(A43,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1041@gmail.com</v>
       </c>
       <c r="D43" t="s">
@@ -5601,14 +5601,14 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1042</v>
       </c>
       <c r="B44" t="s">
         <v>581</v>
       </c>
       <c r="C44" t="str">
-        <f>_xlfn.CONCAT(A44,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1042@gmail.com</v>
       </c>
       <c r="D44" t="s">
@@ -5626,14 +5626,14 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1043</v>
       </c>
       <c r="B45" t="s">
         <v>581</v>
       </c>
       <c r="C45" t="str">
-        <f>_xlfn.CONCAT(A45,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1043@gmail.com</v>
       </c>
       <c r="D45" t="s">
@@ -5651,14 +5651,14 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1044</v>
       </c>
       <c r="B46" t="s">
         <v>582</v>
       </c>
       <c r="C46" t="str">
-        <f>_xlfn.CONCAT(A46,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1044@gmail.com</v>
       </c>
       <c r="D46" t="s">
@@ -5676,14 +5676,14 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1045</v>
       </c>
       <c r="B47" t="s">
         <v>581</v>
       </c>
       <c r="C47" t="str">
-        <f>_xlfn.CONCAT(A47,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1045@gmail.com</v>
       </c>
       <c r="D47" t="s">
@@ -5701,14 +5701,14 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1046</v>
       </c>
       <c r="B48" t="s">
         <v>581</v>
       </c>
       <c r="C48" t="str">
-        <f>_xlfn.CONCAT(A48,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1046@gmail.com</v>
       </c>
       <c r="D48" t="s">
@@ -5726,14 +5726,14 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1047</v>
       </c>
       <c r="B49" t="s">
         <v>581</v>
       </c>
       <c r="C49" t="str">
-        <f>_xlfn.CONCAT(A49,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1047@gmail.com</v>
       </c>
       <c r="D49" t="s">
@@ -5751,14 +5751,14 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1048</v>
       </c>
       <c r="B50" t="s">
         <v>582</v>
       </c>
       <c r="C50" t="str">
-        <f>_xlfn.CONCAT(A50,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1048@gmail.com</v>
       </c>
       <c r="D50" t="s">
@@ -5776,14 +5776,14 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1049</v>
       </c>
       <c r="B51" t="s">
         <v>581</v>
       </c>
       <c r="C51" t="str">
-        <f>_xlfn.CONCAT(A51,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1049@gmail.com</v>
       </c>
       <c r="D51" t="s">
@@ -5801,14 +5801,14 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="B52" t="s">
         <v>581</v>
       </c>
       <c r="C52" t="str">
-        <f>_xlfn.CONCAT(A52,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1050@gmail.com</v>
       </c>
       <c r="D52" t="s">
@@ -5826,14 +5826,14 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1051</v>
       </c>
       <c r="B53" t="s">
         <v>581</v>
       </c>
       <c r="C53" t="str">
-        <f>_xlfn.CONCAT(A53,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1051@gmail.com</v>
       </c>
       <c r="D53" t="s">
@@ -5851,14 +5851,14 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1052</v>
       </c>
       <c r="B54" t="s">
         <v>581</v>
       </c>
       <c r="C54" t="str">
-        <f>_xlfn.CONCAT(A54,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1052@gmail.com</v>
       </c>
       <c r="D54" t="s">
@@ -5876,14 +5876,14 @@
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1053</v>
       </c>
       <c r="B55" t="s">
         <v>581</v>
       </c>
       <c r="C55" t="str">
-        <f>_xlfn.CONCAT(A55,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1053@gmail.com</v>
       </c>
       <c r="D55" t="s">
@@ -5901,14 +5901,14 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1054</v>
       </c>
       <c r="B56" t="s">
         <v>581</v>
       </c>
       <c r="C56" t="str">
-        <f>_xlfn.CONCAT(A56,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1054@gmail.com</v>
       </c>
       <c r="D56" t="s">
@@ -5926,14 +5926,14 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1055</v>
       </c>
       <c r="B57" t="s">
         <v>581</v>
       </c>
       <c r="C57" t="str">
-        <f>_xlfn.CONCAT(A57,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1055@gmail.com</v>
       </c>
       <c r="D57" t="s">
@@ -5951,14 +5951,14 @@
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1056</v>
       </c>
       <c r="B58" t="s">
         <v>581</v>
       </c>
       <c r="C58" t="str">
-        <f>_xlfn.CONCAT(A58,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1056@gmail.com</v>
       </c>
       <c r="D58" t="s">
@@ -5976,14 +5976,14 @@
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1057</v>
       </c>
       <c r="B59" t="s">
         <v>581</v>
       </c>
       <c r="C59" t="str">
-        <f>_xlfn.CONCAT(A59,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1057@gmail.com</v>
       </c>
       <c r="D59" t="s">
@@ -6001,14 +6001,14 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1058</v>
       </c>
       <c r="B60" t="s">
         <v>582</v>
       </c>
       <c r="C60" t="str">
-        <f>_xlfn.CONCAT(A60,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1058@gmail.com</v>
       </c>
       <c r="D60" t="s">
@@ -6026,14 +6026,14 @@
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059</v>
       </c>
       <c r="B61" t="s">
         <v>581</v>
       </c>
       <c r="C61" t="str">
-        <f>_xlfn.CONCAT(A61,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1059@gmail.com</v>
       </c>
       <c r="D61" t="s">
@@ -6051,14 +6051,14 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1060</v>
       </c>
       <c r="B62" t="s">
         <v>581</v>
       </c>
       <c r="C62" t="str">
-        <f>_xlfn.CONCAT(A62,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1060@gmail.com</v>
       </c>
       <c r="D62" t="s">
@@ -6076,14 +6076,14 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1061</v>
       </c>
       <c r="B63" t="s">
         <v>581</v>
       </c>
       <c r="C63" t="str">
-        <f>_xlfn.CONCAT(A63,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1061@gmail.com</v>
       </c>
       <c r="D63" t="s">
@@ -6101,14 +6101,14 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1062</v>
       </c>
       <c r="B64" t="s">
         <v>582</v>
       </c>
       <c r="C64" t="str">
-        <f>_xlfn.CONCAT(A64,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>1062@gmail.com</v>
       </c>
       <c r="D64" t="s">
@@ -6126,14 +6126,14 @@
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1063</v>
       </c>
       <c r="B65" t="s">
         <v>581</v>
       </c>
       <c r="C65" t="str">
-        <f>_xlfn.CONCAT(A65,"@gmail.com")</f>
+        <f t="shared" ref="C65:C101" si="3">_xlfn.CONCAT(A65,"@gmail.com")</f>
         <v>1063@gmail.com</v>
       </c>
       <c r="D65" t="s">
@@ -6151,14 +6151,14 @@
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1064</v>
       </c>
       <c r="B66" t="s">
         <v>581</v>
       </c>
       <c r="C66" t="str">
-        <f>_xlfn.CONCAT(A66,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1064@gmail.com</v>
       </c>
       <c r="D66" t="s">
@@ -6176,14 +6176,14 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A101" si="1">A66+1</f>
+        <f t="shared" ref="A67:A101" si="4">A66+1</f>
         <v>1065</v>
       </c>
       <c r="B67" t="s">
         <v>581</v>
       </c>
       <c r="C67" t="str">
-        <f>_xlfn.CONCAT(A67,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1065@gmail.com</v>
       </c>
       <c r="D67" t="s">
@@ -6201,14 +6201,14 @@
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1066</v>
       </c>
       <c r="B68" t="s">
         <v>581</v>
       </c>
       <c r="C68" t="str">
-        <f>_xlfn.CONCAT(A68,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1066@gmail.com</v>
       </c>
       <c r="D68" t="s">
@@ -6226,14 +6226,14 @@
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1067</v>
       </c>
       <c r="B69" t="s">
         <v>582</v>
       </c>
       <c r="C69" t="str">
-        <f>_xlfn.CONCAT(A69,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1067@gmail.com</v>
       </c>
       <c r="D69" t="s">
@@ -6251,14 +6251,14 @@
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1068</v>
       </c>
       <c r="B70" t="s">
         <v>581</v>
       </c>
       <c r="C70" t="str">
-        <f>_xlfn.CONCAT(A70,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1068@gmail.com</v>
       </c>
       <c r="D70" t="s">
@@ -6276,14 +6276,14 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1069</v>
       </c>
       <c r="B71" t="s">
         <v>581</v>
       </c>
       <c r="C71" t="str">
-        <f>_xlfn.CONCAT(A71,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1069@gmail.com</v>
       </c>
       <c r="D71" t="s">
@@ -6301,14 +6301,14 @@
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1070</v>
       </c>
       <c r="B72" t="s">
         <v>581</v>
       </c>
       <c r="C72" t="str">
-        <f>_xlfn.CONCAT(A72,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1070@gmail.com</v>
       </c>
       <c r="D72" t="s">
@@ -6326,14 +6326,14 @@
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1071</v>
       </c>
       <c r="B73" t="s">
         <v>582</v>
       </c>
       <c r="C73" t="str">
-        <f>_xlfn.CONCAT(A73,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1071@gmail.com</v>
       </c>
       <c r="D73" t="s">
@@ -6351,14 +6351,14 @@
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1072</v>
       </c>
       <c r="B74" t="s">
         <v>581</v>
       </c>
       <c r="C74" t="str">
-        <f>_xlfn.CONCAT(A74,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1072@gmail.com</v>
       </c>
       <c r="D74" t="s">
@@ -6376,14 +6376,14 @@
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1073</v>
       </c>
       <c r="B75" t="s">
         <v>582</v>
       </c>
       <c r="C75" t="str">
-        <f>_xlfn.CONCAT(A75,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1073@gmail.com</v>
       </c>
       <c r="D75" t="s">
@@ -6401,14 +6401,14 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1074</v>
       </c>
       <c r="B76" t="s">
         <v>581</v>
       </c>
       <c r="C76" t="str">
-        <f>_xlfn.CONCAT(A76,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1074@gmail.com</v>
       </c>
       <c r="D76" t="s">
@@ -6426,14 +6426,14 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1075</v>
       </c>
       <c r="B77" t="s">
         <v>582</v>
       </c>
       <c r="C77" t="str">
-        <f>_xlfn.CONCAT(A77,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1075@gmail.com</v>
       </c>
       <c r="D77" t="s">
@@ -6451,14 +6451,14 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1076</v>
       </c>
       <c r="B78" t="s">
         <v>581</v>
       </c>
       <c r="C78" t="str">
-        <f>_xlfn.CONCAT(A78,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1076@gmail.com</v>
       </c>
       <c r="D78" t="s">
@@ -6476,14 +6476,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1077</v>
       </c>
       <c r="B79" t="s">
         <v>581</v>
       </c>
       <c r="C79" t="str">
-        <f>_xlfn.CONCAT(A79,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1077@gmail.com</v>
       </c>
       <c r="D79" t="s">
@@ -6501,14 +6501,14 @@
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1078</v>
       </c>
       <c r="B80" t="s">
         <v>581</v>
       </c>
       <c r="C80" t="str">
-        <f>_xlfn.CONCAT(A80,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1078@gmail.com</v>
       </c>
       <c r="D80" t="s">
@@ -6526,14 +6526,14 @@
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1079</v>
       </c>
       <c r="B81" t="s">
         <v>582</v>
       </c>
       <c r="C81" t="str">
-        <f>_xlfn.CONCAT(A81,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1079@gmail.com</v>
       </c>
       <c r="D81" t="s">
@@ -6551,14 +6551,14 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="B82" t="s">
         <v>581</v>
       </c>
       <c r="C82" t="str">
-        <f>_xlfn.CONCAT(A82,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1080@gmail.com</v>
       </c>
       <c r="D82" t="s">
@@ -6576,14 +6576,14 @@
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1081</v>
       </c>
       <c r="B83" t="s">
         <v>582</v>
       </c>
       <c r="C83" t="str">
-        <f>_xlfn.CONCAT(A83,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1081@gmail.com</v>
       </c>
       <c r="D83" t="s">
@@ -6601,14 +6601,14 @@
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1082</v>
       </c>
       <c r="B84" t="s">
         <v>581</v>
       </c>
       <c r="C84" t="str">
-        <f>_xlfn.CONCAT(A84,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1082@gmail.com</v>
       </c>
       <c r="D84" t="s">
@@ -6626,14 +6626,14 @@
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1083</v>
       </c>
       <c r="B85" t="s">
         <v>582</v>
       </c>
       <c r="C85" t="str">
-        <f>_xlfn.CONCAT(A85,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1083@gmail.com</v>
       </c>
       <c r="D85" t="s">
@@ -6651,14 +6651,14 @@
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1084</v>
       </c>
       <c r="B86" t="s">
         <v>581</v>
       </c>
       <c r="C86" t="str">
-        <f>_xlfn.CONCAT(A86,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1084@gmail.com</v>
       </c>
       <c r="D86" t="s">
@@ -6676,14 +6676,14 @@
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1085</v>
       </c>
       <c r="B87" t="s">
         <v>581</v>
       </c>
       <c r="C87" t="str">
-        <f>_xlfn.CONCAT(A87,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1085@gmail.com</v>
       </c>
       <c r="D87" t="s">
@@ -6701,14 +6701,14 @@
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1086</v>
       </c>
       <c r="B88" t="s">
         <v>581</v>
       </c>
       <c r="C88" t="str">
-        <f>_xlfn.CONCAT(A88,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1086@gmail.com</v>
       </c>
       <c r="D88" t="s">
@@ -6726,14 +6726,14 @@
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1087</v>
       </c>
       <c r="B89" t="s">
         <v>581</v>
       </c>
       <c r="C89" t="str">
-        <f>_xlfn.CONCAT(A89,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1087@gmail.com</v>
       </c>
       <c r="D89" t="s">
@@ -6751,14 +6751,14 @@
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1088</v>
       </c>
       <c r="B90" t="s">
         <v>581</v>
       </c>
       <c r="C90" t="str">
-        <f>_xlfn.CONCAT(A90,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1088@gmail.com</v>
       </c>
       <c r="D90" t="s">
@@ -6776,14 +6776,14 @@
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1089</v>
       </c>
       <c r="B91" t="s">
         <v>581</v>
       </c>
       <c r="C91" t="str">
-        <f>_xlfn.CONCAT(A91,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1089@gmail.com</v>
       </c>
       <c r="D91" t="s">
@@ -6801,14 +6801,14 @@
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1090</v>
       </c>
       <c r="B92" t="s">
         <v>581</v>
       </c>
       <c r="C92" t="str">
-        <f>_xlfn.CONCAT(A92,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1090@gmail.com</v>
       </c>
       <c r="D92" t="s">
@@ -6826,14 +6826,14 @@
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1091</v>
       </c>
       <c r="B93" t="s">
         <v>581</v>
       </c>
       <c r="C93" t="str">
-        <f>_xlfn.CONCAT(A93,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1091@gmail.com</v>
       </c>
       <c r="D93" t="s">
@@ -6851,14 +6851,14 @@
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1092</v>
       </c>
       <c r="B94" t="s">
         <v>582</v>
       </c>
       <c r="C94" t="str">
-        <f>_xlfn.CONCAT(A94,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1092@gmail.com</v>
       </c>
       <c r="D94" t="s">
@@ -6876,14 +6876,14 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1093</v>
       </c>
       <c r="B95" t="s">
         <v>581</v>
       </c>
       <c r="C95" t="str">
-        <f>_xlfn.CONCAT(A95,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1093@gmail.com</v>
       </c>
       <c r="D95" t="s">
@@ -6901,14 +6901,14 @@
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1094</v>
       </c>
       <c r="B96" t="s">
         <v>581</v>
       </c>
       <c r="C96" t="str">
-        <f>_xlfn.CONCAT(A96,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1094@gmail.com</v>
       </c>
       <c r="D96" t="s">
@@ -6926,14 +6926,14 @@
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1095</v>
       </c>
       <c r="B97" t="s">
         <v>581</v>
       </c>
       <c r="C97" t="str">
-        <f>_xlfn.CONCAT(A97,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1095@gmail.com</v>
       </c>
       <c r="D97" t="s">
@@ -6951,14 +6951,14 @@
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1096</v>
       </c>
       <c r="B98" t="s">
         <v>582</v>
       </c>
       <c r="C98" t="str">
-        <f>_xlfn.CONCAT(A98,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1096@gmail.com</v>
       </c>
       <c r="D98" t="s">
@@ -6976,14 +6976,14 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1097</v>
       </c>
       <c r="B99" t="s">
         <v>581</v>
       </c>
       <c r="C99" t="str">
-        <f>_xlfn.CONCAT(A99,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1097@gmail.com</v>
       </c>
       <c r="D99" t="s">
@@ -7001,14 +7001,14 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1098</v>
       </c>
       <c r="B100" t="s">
         <v>582</v>
       </c>
       <c r="C100" t="str">
-        <f>_xlfn.CONCAT(A100,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1098@gmail.com</v>
       </c>
       <c r="D100" t="s">
@@ -7026,14 +7026,14 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1099</v>
       </c>
       <c r="B101" t="s">
         <v>582</v>
       </c>
       <c r="C101" t="str">
-        <f>_xlfn.CONCAT(A101,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>1099@gmail.com</v>
       </c>
       <c r="D101" t="s">
@@ -7071,8 +7071,8 @@
         <v>480</v>
       </c>
       <c r="B1">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>7864668</v>
+        <f t="shared" ref="B1:B32" ca="1" si="0">RANDBETWEEN(51264,9963254)</f>
+        <v>7372806</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,8 +7080,8 @@
         <v>481</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4435719</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>120444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,8 +7089,8 @@
         <v>482</v>
       </c>
       <c r="B3">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2747368</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6080666</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7098,8 +7098,8 @@
         <v>483</v>
       </c>
       <c r="B4">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2807525</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1980416</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7107,8 +7107,8 @@
         <v>484</v>
       </c>
       <c r="B5">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>771419</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2155471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,8 +7116,8 @@
         <v>485</v>
       </c>
       <c r="B6">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8406236</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9581054</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,8 +7125,8 @@
         <v>486</v>
       </c>
       <c r="B7">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9855544</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2967431</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7134,8 +7134,8 @@
         <v>487</v>
       </c>
       <c r="B8">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>921823</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4064338</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7143,8 +7143,8 @@
         <v>488</v>
       </c>
       <c r="B9">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3711570</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2843239</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7152,8 +7152,8 @@
         <v>489</v>
       </c>
       <c r="B10">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5412535</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4383626</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7161,8 +7161,8 @@
         <v>490</v>
       </c>
       <c r="B11">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>7405640</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3133262</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7170,8 +7170,8 @@
         <v>491</v>
       </c>
       <c r="B12">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6090647</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7457353</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7179,8 +7179,8 @@
         <v>492</v>
       </c>
       <c r="B13">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1204393</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6714151</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,8 +7188,8 @@
         <v>493</v>
       </c>
       <c r="B14">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5817848</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3728505</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7197,8 +7197,8 @@
         <v>494</v>
       </c>
       <c r="B15">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6752108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3272257</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7206,8 +7206,8 @@
         <v>495</v>
       </c>
       <c r="B16">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5918887</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9243892</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7215,8 +7215,8 @@
         <v>496</v>
       </c>
       <c r="B17">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>478981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3411413</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7224,8 +7224,8 @@
         <v>497</v>
       </c>
       <c r="B18">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1041887</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5320252</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7233,8 +7233,8 @@
         <v>498</v>
       </c>
       <c r="B19">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4883824</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4477372</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7242,8 +7242,8 @@
         <v>499</v>
       </c>
       <c r="B20">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5248089</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8037574</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7251,8 +7251,8 @@
         <v>500</v>
       </c>
       <c r="B21">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1312522</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3205449</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,8 +7260,8 @@
         <v>501</v>
       </c>
       <c r="B22">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1208474</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2018900</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,8 +7269,8 @@
         <v>502</v>
       </c>
       <c r="B23">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9069741</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2255905</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7278,8 +7278,8 @@
         <v>503</v>
       </c>
       <c r="B24">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3397104</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9711562</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7287,8 +7287,8 @@
         <v>504</v>
       </c>
       <c r="B25">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9684517</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2479589</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7296,8 +7296,8 @@
         <v>505</v>
       </c>
       <c r="B26">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>496310</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2092798</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7305,8 +7305,8 @@
         <v>506</v>
       </c>
       <c r="B27">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4406499</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9630886</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7314,8 +7314,8 @@
         <v>507</v>
       </c>
       <c r="B28">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1294652</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4423375</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7323,8 +7323,8 @@
         <v>508</v>
       </c>
       <c r="B29">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4625146</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>327946</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,8 +7332,8 @@
         <v>509</v>
       </c>
       <c r="B30">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9501253</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4530689</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7341,8 +7341,8 @@
         <v>510</v>
       </c>
       <c r="B31">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5409946</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>427132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7350,8 +7350,8 @@
         <v>511</v>
       </c>
       <c r="B32">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1165646</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7830005</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7359,8 +7359,8 @@
         <v>512</v>
       </c>
       <c r="B33">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9416145</v>
+        <f t="shared" ref="B33:B64" ca="1" si="1">RANDBETWEEN(51264,9963254)</f>
+        <v>1109419</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7368,8 +7368,8 @@
         <v>513</v>
       </c>
       <c r="B34">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8606189</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3233422</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7377,8 +7377,8 @@
         <v>514</v>
       </c>
       <c r="B35">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4986003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4236717</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7386,8 +7386,8 @@
         <v>515</v>
       </c>
       <c r="B36">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9102330</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8335938</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,8 +7395,8 @@
         <v>516</v>
       </c>
       <c r="B37">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4230145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7609511</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,8 +7404,8 @@
         <v>517</v>
       </c>
       <c r="B38">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>471952</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6738148</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7413,8 +7413,8 @@
         <v>518</v>
       </c>
       <c r="B39">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6265237</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7938670</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7422,8 +7422,8 @@
         <v>519</v>
       </c>
       <c r="B40">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8840393</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3319305</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7431,8 +7431,8 @@
         <v>520</v>
       </c>
       <c r="B41">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6496206</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2178071</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7440,8 +7440,8 @@
         <v>521</v>
       </c>
       <c r="B42">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4536930</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7218299</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7449,8 +7449,8 @@
         <v>522</v>
       </c>
       <c r="B43">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3339905</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2373892</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7458,8 +7458,8 @@
         <v>523</v>
       </c>
       <c r="B44">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8288939</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6331843</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7467,8 +7467,8 @@
         <v>524</v>
       </c>
       <c r="B45">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1479846</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1010418</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,8 +7476,8 @@
         <v>525</v>
       </c>
       <c r="B46">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3424983</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7391016</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7485,8 +7485,8 @@
         <v>526</v>
       </c>
       <c r="B47">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1005718</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6750608</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7494,8 +7494,8 @@
         <v>527</v>
       </c>
       <c r="B48">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3800485</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3511819</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7503,8 +7503,8 @@
         <v>528</v>
       </c>
       <c r="B49">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5629771</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8615476</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7512,8 +7512,8 @@
         <v>529</v>
       </c>
       <c r="B50">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>690838</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8689272</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7521,8 +7521,8 @@
         <v>530</v>
       </c>
       <c r="B51">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2969109</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3175990</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7530,8 +7530,8 @@
         <v>531</v>
       </c>
       <c r="B52">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1422604</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7869001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7539,8 +7539,8 @@
         <v>532</v>
       </c>
       <c r="B53">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9645557</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8216839</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,8 +7548,8 @@
         <v>533</v>
       </c>
       <c r="B54">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>7470870</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9547045</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7557,8 +7557,8 @@
         <v>534</v>
       </c>
       <c r="B55">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3540458</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>600823</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7566,8 +7566,8 @@
         <v>535</v>
       </c>
       <c r="B56">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2306772</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9603326</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7575,8 +7575,8 @@
         <v>536</v>
       </c>
       <c r="B57">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8410436</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9089713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -7584,8 +7584,8 @@
         <v>537</v>
       </c>
       <c r="B58">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8102675</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4565103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7593,8 +7593,8 @@
         <v>538</v>
       </c>
       <c r="B59">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2570134</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6456813</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -7602,8 +7602,8 @@
         <v>539</v>
       </c>
       <c r="B60">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9733072</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>780065</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7611,8 +7611,8 @@
         <v>540</v>
       </c>
       <c r="B61">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6397623</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3423676</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,8 +7620,8 @@
         <v>541</v>
       </c>
       <c r="B62">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5089112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2422760</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -7629,8 +7629,8 @@
         <v>542</v>
       </c>
       <c r="B63">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1044478</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8463243</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -7638,8 +7638,8 @@
         <v>543</v>
       </c>
       <c r="B64">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9734011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1890593</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -7647,8 +7647,8 @@
         <v>544</v>
       </c>
       <c r="B65">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3331289</v>
+        <f t="shared" ref="B65:B101" ca="1" si="2">RANDBETWEEN(51264,9963254)</f>
+        <v>5896288</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -7656,8 +7656,8 @@
         <v>545</v>
       </c>
       <c r="B66">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1007332</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>759748</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7665,8 +7665,8 @@
         <v>546</v>
       </c>
       <c r="B67">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2840119</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3245000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -7674,8 +7674,8 @@
         <v>547</v>
       </c>
       <c r="B68">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9510171</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8998808</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -7683,8 +7683,8 @@
         <v>548</v>
       </c>
       <c r="B69">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8658723</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7573072</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,8 +7692,8 @@
         <v>549</v>
       </c>
       <c r="B70">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6560817</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4895818</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -7701,8 +7701,8 @@
         <v>550</v>
       </c>
       <c r="B71">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4811821</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6184313</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7710,8 +7710,8 @@
         <v>551</v>
       </c>
       <c r="B72">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>7384555</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>105162</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -7719,8 +7719,8 @@
         <v>552</v>
       </c>
       <c r="B73">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2199100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9675322</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -7728,8 +7728,8 @@
         <v>553</v>
       </c>
       <c r="B74">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2682891</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6309316</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -7737,8 +7737,8 @@
         <v>554</v>
       </c>
       <c r="B75">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4895205</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8100240</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7746,8 +7746,8 @@
         <v>555</v>
       </c>
       <c r="B76">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8319390</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8998008</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7755,8 +7755,8 @@
         <v>556</v>
       </c>
       <c r="B77">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3831834</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1130617</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,8 +7764,8 @@
         <v>557</v>
       </c>
       <c r="B78">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4501280</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4148453</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -7773,8 +7773,8 @@
         <v>558</v>
       </c>
       <c r="B79">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>9564949</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4057583</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -7782,8 +7782,8 @@
         <v>559</v>
       </c>
       <c r="B80">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3741301</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3708238</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7791,8 +7791,8 @@
         <v>560</v>
       </c>
       <c r="B81">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>7238531</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2224346</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -7800,8 +7800,8 @@
         <v>561</v>
       </c>
       <c r="B82">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1135998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9155441</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7809,8 +7809,8 @@
         <v>562</v>
       </c>
       <c r="B83">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6535083</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4554094</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -7818,8 +7818,8 @@
         <v>563</v>
       </c>
       <c r="B84">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8181925</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1365178</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -7827,8 +7827,8 @@
         <v>564</v>
       </c>
       <c r="B85">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1342771</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6930690</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,8 +7836,8 @@
         <v>565</v>
       </c>
       <c r="B86">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1148377</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7137887</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7845,8 +7845,8 @@
         <v>566</v>
       </c>
       <c r="B87">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4259939</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2899922</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -7854,8 +7854,8 @@
         <v>567</v>
       </c>
       <c r="B88">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>239297</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1987026</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -7863,8 +7863,8 @@
         <v>568</v>
       </c>
       <c r="B89">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6145717</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6257294</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -7872,8 +7872,8 @@
         <v>569</v>
       </c>
       <c r="B90">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>935103</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9704789</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -7881,8 +7881,8 @@
         <v>570</v>
       </c>
       <c r="B91">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1476041</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1959732</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7890,8 +7890,8 @@
         <v>571</v>
       </c>
       <c r="B92">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>2411031</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3016939</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7899,8 +7899,8 @@
         <v>572</v>
       </c>
       <c r="B93">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>3437314</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5557416</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,8 +7908,8 @@
         <v>573</v>
       </c>
       <c r="B94">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6634865</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6751201</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7917,8 +7917,8 @@
         <v>574</v>
       </c>
       <c r="B95">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>555270</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5294540</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,8 +7926,8 @@
         <v>575</v>
       </c>
       <c r="B96">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>999344</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2242119</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7935,8 +7935,8 @@
         <v>576</v>
       </c>
       <c r="B97">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>6702617</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7844547</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7944,8 +7944,8 @@
         <v>577</v>
       </c>
       <c r="B98">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>1024857</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7550272</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,8 +7953,8 @@
         <v>578</v>
       </c>
       <c r="B99">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>4207971</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3840920</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7962,8 +7962,8 @@
         <v>579</v>
       </c>
       <c r="B100">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>5421417</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6766777</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7971,8 +7971,8 @@
         <v>580</v>
       </c>
       <c r="B101">
-        <f ca="1">RANDBETWEEN(51264,9963254)</f>
-        <v>8359968</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7121685</v>
       </c>
     </row>
   </sheetData>
